--- a/CGE/3report.xlsx
+++ b/CGE/3report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\GHATIMGE\CGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\W\SAGE_GH_FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B681F36-9A19-4202-9DC6-F0A35850694C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5324C4E-1159-443E-A616-75C51B5DA477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22080" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="383">
   <si>
     <t>GDX index</t>
   </si>
@@ -1820,9 +1820,9 @@
   <dimension ref="A1:T86"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B3" sqref="B3"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2961,10 +2961,10 @@
   <dimension ref="A1:CD69"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="BT8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="AI25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="CQ29" sqref="CQ29"/>
+      <selection pane="bottomRight" activeCell="AK43" sqref="AK43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3038,6 +3038,9 @@
       </c>
       <c r="W7" t="s">
         <v>300</v>
+      </c>
+      <c r="X7" t="s">
+        <v>379</v>
       </c>
       <c r="Y7" t="s">
         <v>301</v>
@@ -16129,10 +16132,10 @@
   <dimension ref="A1:DQ111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="AR8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="AB26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="BN30" sqref="BN30"/>
+      <selection pane="bottomRight" activeCell="AL44" sqref="AL44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16208,6 +16211,9 @@
       </c>
       <c r="W7" t="s">
         <v>330</v>
+      </c>
+      <c r="X7" t="s">
+        <v>380</v>
       </c>
       <c r="Y7" t="s">
         <v>331</v>
